--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Cornish.Fall.111920-2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Cornish.Fall.111920-2.xlsx_with_dialog_acts.xlsx
@@ -517,12 +517,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -685,12 +685,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1151,12 +1151,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1193,12 +1193,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1617,12 +1617,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2329,12 +2329,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4059,12 +4059,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4315,12 +4315,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4357,12 +4357,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4441,12 +4441,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4861,12 +4861,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4987,12 +4987,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5365,12 +5365,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5789,12 +5789,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6499,12 +6499,12 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7423,12 +7423,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7591,12 +7591,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7801,12 +7801,12 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7843,12 +7843,12 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8387,12 +8387,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8513,12 +8513,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10445,12 +10445,12 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10949,12 +10949,12 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11159,12 +11159,12 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11705,12 +11705,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12125,12 +12125,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12759,12 +12759,12 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13725,12 +13725,12 @@
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14317,12 +14317,12 @@
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14615,12 +14615,12 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14657,12 +14657,12 @@
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
